--- a/training/output/LRSADTLM/T/T2_T0.xlsx
+++ b/training/output/LRSADTLM/T/T2_T0.xlsx
@@ -447,250 +447,250 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.7625</v>
+        <v>0.925</v>
       </c>
       <c r="B2" t="n">
-        <v>2.023857612609863</v>
+        <v>1.807929215431213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9725</v>
+        <v>0.9625</v>
       </c>
       <c r="B3" t="n">
-        <v>1.676150064468384</v>
+        <v>1.584631719589233</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9775</v>
+        <v>0.95</v>
       </c>
       <c r="B4" t="n">
-        <v>1.546759986877441</v>
+        <v>1.510772433280945</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="B5" t="n">
-        <v>1.570066337585449</v>
+        <v>1.533498287200928</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.99</v>
+        <v>0.9575</v>
       </c>
       <c r="B6" t="n">
-        <v>1.508865094184876</v>
+        <v>1.471474952697754</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9925</v>
+        <v>0.945</v>
       </c>
       <c r="B7" t="n">
-        <v>1.447667555809021</v>
+        <v>1.435026750564575</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.99</v>
+        <v>0.9625</v>
       </c>
       <c r="B8" t="n">
-        <v>1.462871747016907</v>
+        <v>1.462049932479858</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9825</v>
+        <v>0.9675</v>
       </c>
       <c r="B9" t="n">
-        <v>1.456245474815369</v>
+        <v>1.439021167755127</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9875</v>
+        <v>0.9675</v>
       </c>
       <c r="B10" t="n">
-        <v>1.457710084915161</v>
+        <v>1.44590283870697</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9825</v>
+        <v>0.955</v>
       </c>
       <c r="B11" t="n">
-        <v>1.4243661403656</v>
+        <v>1.419992351531982</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9825</v>
+        <v>0.955</v>
       </c>
       <c r="B12" t="n">
-        <v>1.416684427261353</v>
+        <v>1.418448624610901</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="B13" t="n">
-        <v>1.421504940986633</v>
+        <v>1.416115012168884</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.99</v>
+        <v>0.9725</v>
       </c>
       <c r="B14" t="n">
-        <v>1.411266446113586</v>
+        <v>1.411953377723694</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.995</v>
+        <v>0.975</v>
       </c>
       <c r="B15" t="n">
-        <v>1.416656365394592</v>
+        <v>1.418118786811829</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.995</v>
+        <v>0.9725</v>
       </c>
       <c r="B16" t="n">
-        <v>1.427834386825562</v>
+        <v>1.424956965446472</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>1.412760171890259</v>
+        <v>1.410884013175964</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.985</v>
+        <v>0.9525</v>
       </c>
       <c r="B18" t="n">
-        <v>1.419337944984436</v>
+        <v>1.417556128501892</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.985</v>
+        <v>0.9625</v>
       </c>
       <c r="B19" t="n">
-        <v>1.426212501525879</v>
+        <v>1.416070523262024</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9825</v>
+        <v>0.9625</v>
       </c>
       <c r="B20" t="n">
-        <v>1.423243336677551</v>
+        <v>1.411519637107849</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9825</v>
+        <v>0.97</v>
       </c>
       <c r="B21" t="n">
-        <v>1.485308403968811</v>
+        <v>1.422916431427002</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9825</v>
+        <v>0.97</v>
       </c>
       <c r="B22" t="n">
-        <v>1.418576049804688</v>
+        <v>1.409156432151794</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.99</v>
+        <v>0.9575</v>
       </c>
       <c r="B23" t="n">
-        <v>1.46115375995636</v>
+        <v>1.4349675989151</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9825</v>
+        <v>0.9625</v>
       </c>
       <c r="B24" t="n">
-        <v>1.413657579421997</v>
+        <v>1.404474744796753</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9875</v>
+        <v>0.9775</v>
       </c>
       <c r="B25" t="n">
-        <v>1.484579753875732</v>
+        <v>1.452022438049316</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9875</v>
+        <v>0.945</v>
       </c>
       <c r="B26" t="n">
-        <v>1.41618043422699</v>
+        <v>1.409389882087708</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.975</v>
+        <v>0.9425</v>
       </c>
       <c r="B27" t="n">
-        <v>1.442449288368225</v>
+        <v>1.408911385536194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9875</v>
+        <v>0.9725</v>
       </c>
       <c r="B28" t="n">
-        <v>1.415625972747803</v>
+        <v>1.402447938919067</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.99</v>
+        <v>0.955</v>
       </c>
       <c r="B29" t="n">
-        <v>1.421253213882446</v>
+        <v>1.418523931503296</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9875</v>
+        <v>0.945</v>
       </c>
       <c r="B30" t="n">
-        <v>1.411891570091248</v>
+        <v>1.413478217124939</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9875</v>
+        <v>0.96</v>
       </c>
       <c r="B31" t="n">
-        <v>1.399420499801636</v>
+        <v>1.407102727890015</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.985</v>
+        <v>0.97</v>
       </c>
       <c r="B32" t="n">
-        <v>1.408186640739441</v>
+        <v>1.398831882476807</v>
       </c>
     </row>
     <row r="33">
@@ -698,551 +698,551 @@
         <v>0.97</v>
       </c>
       <c r="B33" t="n">
-        <v>1.415530228614807</v>
+        <v>1.39898371219635</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9825</v>
+        <v>0.9675</v>
       </c>
       <c r="B34" t="n">
-        <v>1.405813775062561</v>
+        <v>1.401351661682129</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="B35" t="n">
-        <v>1.39770966053009</v>
+        <v>1.396451458930969</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9925</v>
+        <v>0.9675</v>
       </c>
       <c r="B36" t="n">
-        <v>1.404781823158264</v>
+        <v>1.39953423500061</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.985</v>
+        <v>0.965</v>
       </c>
       <c r="B37" t="n">
-        <v>1.398073801994324</v>
+        <v>1.398649387359619</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9825</v>
+        <v>0.97</v>
       </c>
       <c r="B38" t="n">
-        <v>1.436173963546753</v>
+        <v>1.418257827758789</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9875</v>
+        <v>0.9625</v>
       </c>
       <c r="B39" t="n">
-        <v>1.400175170898438</v>
+        <v>1.399571805000305</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.985</v>
+        <v>0.97</v>
       </c>
       <c r="B40" t="n">
-        <v>1.428170862197876</v>
+        <v>1.41643798828125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9875</v>
+        <v>0.9775</v>
       </c>
       <c r="B41" t="n">
-        <v>1.414783143997192</v>
+        <v>1.400380806922913</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="B42" t="n">
-        <v>1.393624606132507</v>
+        <v>1.392634382247925</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.99</v>
+        <v>0.9775</v>
       </c>
       <c r="B43" t="n">
-        <v>1.418585305213928</v>
+        <v>1.400486016273498</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.975</v>
       </c>
       <c r="B44" t="n">
-        <v>1.429593830108643</v>
+        <v>1.401329569816589</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.98</v>
+        <v>0.975</v>
       </c>
       <c r="B45" t="n">
-        <v>1.422998795509338</v>
+        <v>1.40023087978363</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9875</v>
+        <v>0.9725</v>
       </c>
       <c r="B46" t="n">
-        <v>1.401153674125671</v>
+        <v>1.398099999427795</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9875</v>
+        <v>0.9625</v>
       </c>
       <c r="B47" t="n">
-        <v>1.398870077133179</v>
+        <v>1.396725015640259</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9875</v>
+        <v>0.965</v>
       </c>
       <c r="B48" t="n">
-        <v>1.404081034660339</v>
+        <v>1.399009861946106</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9925</v>
+        <v>0.9675</v>
       </c>
       <c r="B49" t="n">
-        <v>1.406734733581543</v>
+        <v>1.396137771606445</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9875</v>
+        <v>0.965</v>
       </c>
       <c r="B50" t="n">
-        <v>1.396774520874023</v>
+        <v>1.396687321662903</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.985</v>
+        <v>0.9175</v>
       </c>
       <c r="B51" t="n">
-        <v>1.415588231086731</v>
+        <v>1.40246045589447</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.98</v>
+        <v>0.9175</v>
       </c>
       <c r="B52" t="n">
-        <v>1.418892912864685</v>
+        <v>1.397524118423462</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.985</v>
+        <v>0.92</v>
       </c>
       <c r="B53" t="n">
-        <v>1.428541073799133</v>
+        <v>1.398496255874634</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.985</v>
+        <v>0.95</v>
       </c>
       <c r="B54" t="n">
-        <v>1.416652879714966</v>
+        <v>1.401689958572388</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.9575</v>
       </c>
       <c r="B55" t="n">
-        <v>1.408573040962219</v>
+        <v>1.393942017555237</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.99</v>
+        <v>0.9575</v>
       </c>
       <c r="B56" t="n">
-        <v>1.399976224899292</v>
+        <v>1.39467800617218</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.99</v>
+        <v>0.955</v>
       </c>
       <c r="B57" t="n">
-        <v>1.396205773353577</v>
+        <v>1.395172934532166</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9925</v>
+        <v>0.9525</v>
       </c>
       <c r="B58" t="n">
-        <v>1.39381224155426</v>
+        <v>1.392595496177673</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9925</v>
+        <v>0.9525</v>
       </c>
       <c r="B59" t="n">
-        <v>1.394807748794556</v>
+        <v>1.393952875137329</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9825</v>
+        <v>0.9125</v>
       </c>
       <c r="B60" t="n">
-        <v>1.418711524009705</v>
+        <v>1.400798687934875</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.99</v>
+        <v>0.9125</v>
       </c>
       <c r="B61" t="n">
-        <v>1.406411700248718</v>
+        <v>1.412758202552795</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9925</v>
+        <v>0.9275</v>
       </c>
       <c r="B62" t="n">
-        <v>1.402638964653015</v>
+        <v>1.395832710266113</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9925</v>
+        <v>0.945</v>
       </c>
       <c r="B63" t="n">
-        <v>1.398528723716736</v>
+        <v>1.394734835624695</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.99</v>
+        <v>0.9475</v>
       </c>
       <c r="B64" t="n">
-        <v>1.392723159790039</v>
+        <v>1.39138231754303</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9925</v>
+        <v>0.9525</v>
       </c>
       <c r="B65" t="n">
-        <v>1.399081301689148</v>
+        <v>1.393199071884155</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9825</v>
+        <v>0.9525</v>
       </c>
       <c r="B66" t="n">
-        <v>1.393488473892212</v>
+        <v>1.391870985031128</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.985</v>
+        <v>0.9525</v>
       </c>
       <c r="B67" t="n">
-        <v>1.395311899185181</v>
+        <v>1.392123856544495</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9875</v>
+        <v>0.9525</v>
       </c>
       <c r="B68" t="n">
-        <v>1.393697485923767</v>
+        <v>1.392903790473938</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.985</v>
+        <v>0.955</v>
       </c>
       <c r="B69" t="n">
-        <v>1.390660915374756</v>
+        <v>1.390374336242676</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.985</v>
+        <v>0.955</v>
       </c>
       <c r="B70" t="n">
-        <v>1.391649594306946</v>
+        <v>1.391362500190735</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.985</v>
+        <v>0.9475</v>
       </c>
       <c r="B71" t="n">
-        <v>1.390983700752258</v>
+        <v>1.391143155097961</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.985</v>
+        <v>0.9475</v>
       </c>
       <c r="B72" t="n">
-        <v>1.390791864395142</v>
+        <v>1.39094069480896</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.975</v>
+        <v>0.9525</v>
       </c>
       <c r="B73" t="n">
-        <v>1.462393307685852</v>
+        <v>1.401731581687927</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.985</v>
+        <v>0.95</v>
       </c>
       <c r="B74" t="n">
-        <v>1.40235237121582</v>
+        <v>1.391610479354858</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.9875</v>
+        <v>0.95</v>
       </c>
       <c r="B75" t="n">
-        <v>1.396702966690063</v>
+        <v>1.391710715293884</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9925</v>
+        <v>0.9525</v>
       </c>
       <c r="B76" t="n">
-        <v>1.393546900749207</v>
+        <v>1.390531368255615</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.9925</v>
+        <v>0.9525</v>
       </c>
       <c r="B77" t="n">
-        <v>1.391069355010986</v>
+        <v>1.389929180145264</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9925</v>
+        <v>0.95</v>
       </c>
       <c r="B78" t="n">
-        <v>1.392888774871826</v>
+        <v>1.390736961364746</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.9925</v>
+        <v>0.95</v>
       </c>
       <c r="B79" t="n">
-        <v>1.393322806358337</v>
+        <v>1.390728998184204</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.9925</v>
+        <v>0.9525</v>
       </c>
       <c r="B80" t="n">
-        <v>1.393428645133972</v>
+        <v>1.391930885314941</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.975</v>
+        <v>0.9525</v>
       </c>
       <c r="B81" t="n">
-        <v>1.395526576042175</v>
+        <v>1.391077837944031</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.985</v>
+        <v>0.95</v>
       </c>
       <c r="B82" t="n">
-        <v>1.394234538078308</v>
+        <v>1.390701823234558</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.985</v>
+        <v>0.95</v>
       </c>
       <c r="B83" t="n">
-        <v>1.391671466827393</v>
+        <v>1.390165634155273</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.985</v>
+        <v>0.95</v>
       </c>
       <c r="B84" t="n">
-        <v>1.389682259559631</v>
+        <v>1.389384613037109</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9925</v>
+        <v>0.9625</v>
       </c>
       <c r="B85" t="n">
-        <v>1.395621361732483</v>
+        <v>1.392203412055969</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="B86" t="n">
-        <v>1.400235705375671</v>
+        <v>1.391786856651306</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.985</v>
+        <v>0.965</v>
       </c>
       <c r="B87" t="n">
-        <v>1.401342082023621</v>
+        <v>1.391300430297852</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.9875</v>
+        <v>0.97</v>
       </c>
       <c r="B88" t="n">
-        <v>1.445993409156799</v>
+        <v>1.399238886833191</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9875</v>
+        <v>0.9775</v>
       </c>
       <c r="B89" t="n">
-        <v>1.394501543045044</v>
+        <v>1.392382788658142</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9875</v>
+        <v>0.97</v>
       </c>
       <c r="B90" t="n">
-        <v>1.391968083381653</v>
+        <v>1.389930725097656</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.9875</v>
+        <v>0.965</v>
       </c>
       <c r="B91" t="n">
-        <v>1.392201790809631</v>
+        <v>1.391548328399658</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9875</v>
+        <v>0.9575</v>
       </c>
       <c r="B92" t="n">
-        <v>1.39098030090332</v>
+        <v>1.389902057647705</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.98</v>
+        <v>0.9575</v>
       </c>
       <c r="B93" t="n">
-        <v>1.410163440704346</v>
+        <v>1.391591815948486</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9825</v>
+        <v>0.96</v>
       </c>
       <c r="B94" t="n">
-        <v>1.423659992218018</v>
+        <v>1.3929723072052</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.9825</v>
+        <v>0.9475</v>
       </c>
       <c r="B95" t="n">
-        <v>1.395100059509277</v>
+        <v>1.38943470954895</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9825</v>
+        <v>0.9475</v>
       </c>
       <c r="B96" t="n">
-        <v>1.395159959793091</v>
+        <v>1.392264375686646</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.97</v>
+        <v>0.955</v>
       </c>
       <c r="B97" t="n">
-        <v>1.412726230621338</v>
+        <v>1.395886511802673</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.965</v>
+        <v>0.9675</v>
       </c>
       <c r="B98" t="n">
-        <v>1.431622562408447</v>
+        <v>1.397547764778137</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9775</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>1.406757597923279</v>
+        <v>1.392680463790894</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.9875</v>
+        <v>0.9375</v>
       </c>
       <c r="B100" t="n">
-        <v>1.391977090835571</v>
+        <v>1.389544644355774</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.9825</v>
+        <v>0.9425</v>
       </c>
       <c r="B101" t="n">
-        <v>1.409346413612366</v>
+        <v>1.391443600654602</v>
       </c>
     </row>
   </sheetData>
